--- a/时间管理大师/2023/5、习惯培养卡片.xlsx
+++ b/时间管理大师/2023/5、习惯培养卡片.xlsx
@@ -5,14 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\daily-interview\Excel\way\年计划表格模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\db\daily-interview\时间管理大师\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
   </bookViews>
   <sheets>
-    <sheet name="习惯培养卡片2" sheetId="6" r:id="rId1"/>
+    <sheet name="3月起床" sheetId="8" r:id="rId1"/>
+    <sheet name="习惯培养卡片2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -326,47 +328,671 @@
     </r>
   </si>
   <si>
+    <t>开始日期：</t>
+  </si>
+  <si>
+    <t>完成日期：</t>
+  </si>
+  <si>
+    <t>签名：</t>
+  </si>
+  <si>
+    <t>别想太多，只管去做。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我要培养</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">的习惯。                            </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这个习惯对我来说很重要，因为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">早起价值百万。躺赢，你想想你学习什么，做什么瞬间挣百万，早起可以实现                                                   </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个可以避免熬夜看视频恶性习惯，你可以不洗刷，不吃早餐上班，</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是第二天抵抗力下降，感冒发烧过敏，掉突发一系列问题，不可挽回的损失，需要多少代价才能弥补？                                                。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是第二天，过去n年习和工作计划全部失灵。需要多少代价重新积累起来？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.3.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.3.30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我要承诺达成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color rgb="FF00B050"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定时间起床L3级别（参考自动驾驶级别</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>） 的习惯</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们不起床，他们各种好公司，好家庭保证，早起就是你最强大武器，不一样</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3月底，如果我实现：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>累计10天6:30 |起床累计20天7点起床|5天不靠闹钟依靠生物钟</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成功了，我会已，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 写成一个博客 标题 希腊神话 美杜莎诱惑故事开始，起床专家 身份告诉别人方法                  ,为自己庆祝达成月度目标。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小王同学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>别想太多，只管去做</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://www.yuque.com/yiyezhou/mwval5/gabuai1y4a3sg8vh?singleDoc#7MaR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月目标九宫格》</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="22"/>
+        <color rgb="FF00B050"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后一次晚起床，一星期彻底起床 崩盘局面，一切后悔，自责变成拖延一部分。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>如果失败了，我会从头开始继续培养。</t>
-  </si>
-  <si>
-    <t>开始日期：</t>
-  </si>
-  <si>
-    <t>完成日期：</t>
-  </si>
-  <si>
-    <t>签名：</t>
-  </si>
-  <si>
-    <t>别想太多，只管去做。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>我要培养</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="24"/>
-        <color theme="1"/>
-        <rFont val="方正静蕾简体"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color theme="1"/>
-        <rFont val="方正静蕾简体"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">的习惯。                            </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果失败了，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21：点准备睡觉清单清单没有执行，总结原因</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，我会从头开始继续培养</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color rgb="FF92D050"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5秒起床法躺 ---掀----穿 行动清单 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                              </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://www.yuque.com/yiyezhou/nt04qa/lcg2d0t9a1rxo6c9?singleDoc# </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2023GDT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>践行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>养成固定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点准备入睡习惯》</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>case1 如果遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天太黑，太冷，时间太早，别人都不起床，你为什么起床</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  的想法                                              </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>case2 如果遇到 从舒服被窝里，起床，实在难了的行动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                          </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果我有些想放弃</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFC00000"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>那一定是遇到周末，或者出现问题，然后手机诱惑大于自制力，你放到卧室</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                  </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://www.yuque.com/yiyezhou/mwval5/gabuai1y4a3sg8vh?singleDoc#7MaR </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月目标九宫格》</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 行动清单 依靠生物钟起床：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 执行 3月目标九宫格任务                                                     </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 输出：《2023GDT践行(第3期)--养成固定21点准备入睡习惯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">我的分段计划是: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 我准备在三个事情 1.睡前准备清单  2 起床行动清单  3 3月九宫格清单                              </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>承诺人：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我就：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你发现一个小区，一个城市，全世界多人你做到了？为什么少数人，起床最晚人比较</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   这认识偏差</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="方正静蕾简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                               </t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -375,7 +1001,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,16 +1045,205 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color rgb="FF00B050"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color rgb="FF92D050"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="方正静蕾简体"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="方正静蕾简体"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="22"/>
+      <color rgb="FF00B050"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="方正静蕾简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -436,32 +1251,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -477,6 +1386,256 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="上凸弯带形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="38100"/>
+          <a:ext cx="4581525" cy="819785"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipseRibbon2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400" b="1">
+              <a:latin typeface="方正静蕾简体" panose="03000509000000000000" charset="-122"/>
+              <a:ea typeface="方正静蕾简体" panose="03000509000000000000" charset="-122"/>
+            </a:rPr>
+            <a:t>预先承诺习惯培养卡片</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>471301</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>630858</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14105658" y="580160"/>
+          <a:ext cx="5602414" cy="4046270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>773430</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>21860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="Zou_Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4585607" y="13239750"/>
+          <a:ext cx="487680" cy="484505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>463881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>543145</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>530679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14056179" y="5008667"/>
+          <a:ext cx="9646323" cy="1264226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>514661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>205770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="https://cdn.nlark.com/yuque/0/2023/png/215144/1675214469688-e4f23adf-cbef-4d16-abba-96b96e81fbb2.png?x-oss-process=image%2Fresize%2Cw_904%2Climit_0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14205857" y="6910018"/>
+          <a:ext cx="8327572" cy="5569395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -880,11 +2039,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="5" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="80.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="30.95" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="30.95" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="44.25" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="62.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="93.75" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="51" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="49.5" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="51" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="33" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="30" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" ht="38.25" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" ht="54" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="K19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+    </row>
+    <row r="20" spans="1:21" ht="40.5" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+    </row>
+    <row r="21" spans="1:21" ht="39" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" ht="33.75" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" ht="30.95" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" ht="30.95" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:21" ht="30.95" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:21" ht="51.75" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:21" ht="30.95" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:21" ht="51" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1">
+      <c r="J30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12" ht="20.100000000000001" customHeight="1">
+      <c r="L40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K19" r:id="rId1" location="7MaR 《3月目标九宫格》"/>
+  </hyperlinks>
+  <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="0.60555555555555596" bottom="0.40902777777777799" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表5"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -934,248 +2554,248 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="30.95" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="30.95" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
@@ -1195,7 +2815,7 @@
     </row>
     <row r="25" spans="1:9" ht="30.95" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1207,24 +2827,14 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="G26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="G26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A22:I22"/>
@@ -1234,10 +2844,33 @@
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="0.60555555555555596" bottom="0.40902777777777799" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>